--- a/laba2/experiments.xlsx
+++ b/laba2/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>hashtab_lookup</t>
   </si>
@@ -42,136 +42,25 @@
     <t>Exp4</t>
   </si>
   <si>
-    <t>10000 0.000001 8551</t>
+    <t>hashtab_lookupKR</t>
   </si>
   <si>
-    <t>20000 0.000001 18246</t>
+    <t>hashtab_lookupAdd</t>
   </si>
   <si>
-    <t>30000 0.000001 28145</t>
+    <t>CollisionsAdd</t>
   </si>
   <si>
-    <t>40000 0.000001 38114</t>
-  </si>
-  <si>
-    <t>50000 0.000001 48087</t>
-  </si>
-  <si>
-    <t>60000 0.000001 58070</t>
-  </si>
-  <si>
-    <t>70000 0.000002 68033</t>
-  </si>
-  <si>
-    <t>80000 0.000001 78014</t>
-  </si>
-  <si>
-    <t>90000 0.000001 87971</t>
-  </si>
-  <si>
-    <t>100000 0.000001 97945</t>
-  </si>
-  <si>
-    <t>110000 0.000001 107924</t>
-  </si>
-  <si>
-    <t>120000 0.000001 117914</t>
-  </si>
-  <si>
-    <t>130000 0.000001 127888</t>
-  </si>
-  <si>
-    <t>140000 0.000002 137881</t>
-  </si>
-  <si>
-    <t>150000 0.000001 147875</t>
-  </si>
-  <si>
-    <t>160000 0.000001 157864</t>
-  </si>
-  <si>
-    <t>170000 0.000002 167863</t>
-  </si>
-  <si>
-    <t>180000 0.000001 177836</t>
-  </si>
-  <si>
-    <t>190000 0.000001 187827</t>
-  </si>
-  <si>
-    <t>200000 0.000001 197813</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>10000 0.000001 263</t>
-  </si>
-  <si>
-    <t>20000 0.000001 970</t>
-  </si>
-  <si>
-    <t>30000 0.000001 2197</t>
-  </si>
-  <si>
-    <t>40000 0.000001 3784</t>
-  </si>
-  <si>
-    <t>50000 0.000001 5722</t>
-  </si>
-  <si>
-    <t>60000 0.000001 8126</t>
-  </si>
-  <si>
-    <t>70000 0.000002 10865</t>
-  </si>
-  <si>
-    <t>80000 0.000001 13898</t>
-  </si>
-  <si>
-    <t>90000 0.000002 17300</t>
-  </si>
-  <si>
-    <t>100000 0.000002 21106</t>
-  </si>
-  <si>
-    <t>110000 0.000001 25172</t>
-  </si>
-  <si>
-    <t>120000 0.000002 29420</t>
-  </si>
-  <si>
-    <t>130000 0.000002 33982</t>
-  </si>
-  <si>
-    <t>140000 0.000002 38875</t>
-  </si>
-  <si>
-    <t>150000 0.000001 43932</t>
-  </si>
-  <si>
-    <t>160000 0.000001 49325</t>
-  </si>
-  <si>
-    <t>170000 0.000002 54841</t>
-  </si>
-  <si>
-    <t>180000 0.000002 60593</t>
-  </si>
-  <si>
-    <t>190000 0.000001 66489</t>
-  </si>
-  <si>
-    <t>200000 0.000001 72669</t>
+    <t>CollisionsKR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -218,6 +109,5112 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поиск</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> элементов</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bstree_lookup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FDE-493B-A0B9-5953688B167A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashtab_lookup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FDE-493B-A0B9-5953688B167A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590006559"/>
+        <c:axId val="590008639"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590006559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590008639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590008639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590006559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поиск</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> минимального элемента в дереве</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bstree_worstcase_minelement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$F$4:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$4:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-548A-4EA0-8465-7BEE254DC888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bstree_midcase_minelement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$F$4:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$4:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-548A-4EA0-8465-7BEE254DC888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="594947471"/>
+        <c:axId val="594947055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594947471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594947055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594947055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594947471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Количество</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> колизий</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CollisionsKR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$O$2:$O$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$P$3:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5722</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49325</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54841</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60593</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66489</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABB2-4F40-BE33-A782FF666C31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CollisionsAdd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$O$2:$O$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$Q$3:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58070</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107924</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>127888</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>157864</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>177836</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>187827</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>197813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ABB2-4F40-BE33-A782FF666C31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="687111103"/>
+        <c:axId val="687113599"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$O$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>n</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$O$2:$O$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>n</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>60000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>70000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>90000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>110000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>120000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>130000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>140000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>150000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>170000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>180000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>190000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$O$3:$O$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>110000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>130000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>140000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>150000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>170000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>180000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>190000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-ABB2-4F40-BE33-A782FF666C31}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="687111103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687113599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="687113599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687111103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поиск</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> элемента в таблице с хеш-функцией </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>KR/Add</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1403888888888889"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashtab_lookupAdd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$K$3:$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$L$4:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A32-4C3C-8223-3434883E7F8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashtab_lookupKR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$K$3:$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$M$4:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A32-4C3C-8223-3434883E7F8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1116975151"/>
+        <c:axId val="1116974319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1116975151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116974319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1116974319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116975151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,29 +5480,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R23"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -524,14 +5527,26 @@
       <c r="H3" t="s">
         <v>3</v>
       </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
       <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" t="s">
-        <v>29</v>
+      <c r="O3">
+        <v>10000</v>
+      </c>
+      <c r="P3">
+        <v>263</v>
+      </c>
+      <c r="Q3">
+        <v>8551</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10000</v>
       </c>
@@ -550,14 +5565,26 @@
       <c r="H4">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
+      <c r="K4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O4">
+        <v>20000</v>
+      </c>
+      <c r="P4">
+        <v>970</v>
+      </c>
+      <c r="Q4">
+        <v>18246</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>20000</v>
       </c>
@@ -576,14 +5603,26 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
+      <c r="K5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O5">
+        <v>30000</v>
+      </c>
+      <c r="P5">
+        <v>2197</v>
+      </c>
+      <c r="Q5">
+        <v>28145</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>30000</v>
       </c>
@@ -602,14 +5641,26 @@
       <c r="H6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" t="s">
-        <v>32</v>
+      <c r="K6" s="2">
+        <v>30000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O6">
+        <v>40000</v>
+      </c>
+      <c r="P6">
+        <v>3784</v>
+      </c>
+      <c r="Q6">
+        <v>38114</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>40000</v>
       </c>
@@ -628,14 +5679,26 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
+      <c r="K7" s="2">
+        <v>40000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O7">
+        <v>50000</v>
+      </c>
+      <c r="P7">
+        <v>5722</v>
+      </c>
+      <c r="Q7">
+        <v>48087</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>50000</v>
       </c>
@@ -654,14 +5717,26 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" t="s">
-        <v>34</v>
+      <c r="K8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O8">
+        <v>60000</v>
+      </c>
+      <c r="P8">
+        <v>8126</v>
+      </c>
+      <c r="Q8">
+        <v>58070</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>60000</v>
       </c>
@@ -680,14 +5755,26 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" t="s">
-        <v>35</v>
+      <c r="K9" s="2">
+        <v>60000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O9">
+        <v>70000</v>
+      </c>
+      <c r="P9">
+        <v>10865</v>
+      </c>
+      <c r="Q9">
+        <v>68033</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>70000</v>
       </c>
@@ -706,14 +5793,26 @@
       <c r="H10">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" t="s">
-        <v>36</v>
+      <c r="K10" s="2">
+        <v>70000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O10">
+        <v>80000</v>
+      </c>
+      <c r="P10">
+        <v>13898</v>
+      </c>
+      <c r="Q10">
+        <v>78014</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>80000</v>
       </c>
@@ -732,14 +5831,26 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" t="s">
-        <v>37</v>
+      <c r="K11" s="2">
+        <v>80000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O11">
+        <v>90000</v>
+      </c>
+      <c r="P11">
+        <v>17300</v>
+      </c>
+      <c r="Q11">
+        <v>87971</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>90000</v>
       </c>
@@ -758,14 +5869,26 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" t="s">
-        <v>38</v>
+      <c r="K12" s="2">
+        <v>90000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O12">
+        <v>100000</v>
+      </c>
+      <c r="P12">
+        <v>21106</v>
+      </c>
+      <c r="Q12">
+        <v>97945</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>100000</v>
       </c>
@@ -784,14 +5907,26 @@
       <c r="H13">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" t="s">
-        <v>39</v>
+      <c r="K13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O13">
+        <v>110000</v>
+      </c>
+      <c r="P13">
+        <v>25172</v>
+      </c>
+      <c r="Q13">
+        <v>107924</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>110000</v>
       </c>
@@ -810,14 +5945,26 @@
       <c r="H14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" t="s">
-        <v>40</v>
+      <c r="K14" s="2">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M14" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O14">
+        <v>120000</v>
+      </c>
+      <c r="P14">
+        <v>29420</v>
+      </c>
+      <c r="Q14">
+        <v>117914</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>120000</v>
       </c>
@@ -836,14 +5983,26 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" t="s">
-        <v>41</v>
+      <c r="K15" s="2">
+        <v>120000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O15">
+        <v>130000</v>
+      </c>
+      <c r="P15">
+        <v>33982</v>
+      </c>
+      <c r="Q15">
+        <v>127888</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>130000</v>
       </c>
@@ -862,14 +6021,26 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" t="s">
-        <v>42</v>
+      <c r="K16" s="2">
+        <v>130000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O16">
+        <v>140000</v>
+      </c>
+      <c r="P16">
+        <v>38875</v>
+      </c>
+      <c r="Q16">
+        <v>137881</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>140000</v>
       </c>
@@ -888,14 +6059,26 @@
       <c r="H17">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" t="s">
-        <v>43</v>
+      <c r="K17" s="2">
+        <v>140000</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O17">
+        <v>150000</v>
+      </c>
+      <c r="P17">
+        <v>43932</v>
+      </c>
+      <c r="Q17">
+        <v>147875</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>150000</v>
       </c>
@@ -914,14 +6097,26 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" t="s">
-        <v>44</v>
+      <c r="K18" s="2">
+        <v>150000</v>
+      </c>
+      <c r="L18" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M18" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O18">
+        <v>160000</v>
+      </c>
+      <c r="P18">
+        <v>49325</v>
+      </c>
+      <c r="Q18">
+        <v>157864</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>160000</v>
       </c>
@@ -940,14 +6135,26 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" t="s">
-        <v>45</v>
+      <c r="K19" s="2">
+        <v>160000</v>
+      </c>
+      <c r="L19" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O19">
+        <v>170000</v>
+      </c>
+      <c r="P19">
+        <v>54841</v>
+      </c>
+      <c r="Q19">
+        <v>167863</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>170000</v>
       </c>
@@ -966,14 +6173,26 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" t="s">
-        <v>46</v>
+      <c r="K20" s="2">
+        <v>170000</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O20">
+        <v>180000</v>
+      </c>
+      <c r="P20">
+        <v>60593</v>
+      </c>
+      <c r="Q20">
+        <v>177836</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>180000</v>
       </c>
@@ -992,14 +6211,26 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>25</v>
-      </c>
-      <c r="R21" t="s">
-        <v>47</v>
+      <c r="K21" s="2">
+        <v>180000</v>
+      </c>
+      <c r="L21" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O21">
+        <v>190000</v>
+      </c>
+      <c r="P21">
+        <v>66489</v>
+      </c>
+      <c r="Q21">
+        <v>187827</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>190000</v>
       </c>
@@ -1018,14 +6249,26 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22" t="s">
-        <v>48</v>
+      <c r="K22" s="2">
+        <v>190000</v>
+      </c>
+      <c r="L22" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M22" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O22">
+        <v>200000</v>
+      </c>
+      <c r="P22">
+        <v>72669</v>
+      </c>
+      <c r="Q22">
+        <v>197813</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>200000</v>
       </c>
@@ -1043,9 +6286,20 @@
       </c>
       <c r="H23">
         <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>200000</v>
+      </c>
+      <c r="L23" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M23" s="1">
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/laba2/experiments.xlsx
+++ b/laba2/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>hashtab_lookup</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CollisionsKR</t>
+  </si>
+  <si>
+    <t>Exp6</t>
   </si>
 </sst>
 </file>
@@ -626,6 +629,7 @@
         <c:axId val="590008639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0000000000000015E-6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1485,7 +1489,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$P$2</c:f>
+              <c:f>Лист1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1520,7 +1524,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$O$2:$O$22</c:f>
+              <c:f>Лист1!$O$3:$O$23</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -1591,7 +1595,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$P$3:$P$22</c:f>
+              <c:f>Лист1!$P$4:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1670,7 +1674,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$Q$2</c:f>
+              <c:f>Лист1!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1705,7 +1709,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$O$2:$O$22</c:f>
+              <c:f>Лист1!$O$3:$O$23</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -1776,7 +1780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$Q$3:$Q$22</c:f>
+              <c:f>Лист1!$Q$4:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1873,7 +1877,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$O$2</c15:sqref>
+                          <c15:sqref>Лист1!$O$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1914,7 +1918,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$O$2:$O$22</c15:sqref>
+                          <c15:sqref>Лист1!$O$3:$O$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1991,7 +1995,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$O$3:$O$22</c15:sqref>
+                          <c15:sqref>Лист1!$O$4:$O$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5482,33 +5486,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5536,17 +5534,17 @@
       <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="O3">
-        <v>10000</v>
-      </c>
-      <c r="P3">
-        <v>263</v>
-      </c>
-      <c r="Q3">
-        <v>8551</v>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>10000</v>
       </c>
@@ -5575,16 +5573,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P4">
-        <v>970</v>
+        <v>263</v>
       </c>
       <c r="Q4">
-        <v>18246</v>
+        <v>8551</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>20000</v>
       </c>
@@ -5613,16 +5611,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O5">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P5">
-        <v>2197</v>
+        <v>970</v>
       </c>
       <c r="Q5">
-        <v>28145</v>
+        <v>18246</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>30000</v>
       </c>
@@ -5651,16 +5649,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O6">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="P6">
-        <v>3784</v>
+        <v>2197</v>
       </c>
       <c r="Q6">
-        <v>38114</v>
+        <v>28145</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>40000</v>
       </c>
@@ -5689,16 +5687,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O7">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="P7">
-        <v>5722</v>
+        <v>3784</v>
       </c>
       <c r="Q7">
-        <v>48087</v>
+        <v>38114</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>50000</v>
       </c>
@@ -5727,16 +5725,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O8">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="P8">
-        <v>8126</v>
+        <v>5722</v>
       </c>
       <c r="Q8">
-        <v>58070</v>
+        <v>48087</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>60000</v>
       </c>
@@ -5765,16 +5763,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O9">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="P9">
-        <v>10865</v>
+        <v>8126</v>
       </c>
       <c r="Q9">
-        <v>68033</v>
+        <v>58070</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>70000</v>
       </c>
@@ -5803,16 +5801,16 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="O10">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="P10">
-        <v>13898</v>
+        <v>10865</v>
       </c>
       <c r="Q10">
-        <v>78014</v>
+        <v>68033</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>80000</v>
       </c>
@@ -5841,16 +5839,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O11">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="P11">
-        <v>17300</v>
+        <v>13898</v>
       </c>
       <c r="Q11">
-        <v>87971</v>
+        <v>78014</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>90000</v>
       </c>
@@ -5879,16 +5877,16 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="O12">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="P12">
-        <v>21106</v>
+        <v>17300</v>
       </c>
       <c r="Q12">
-        <v>97945</v>
+        <v>87971</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>100000</v>
       </c>
@@ -5917,16 +5915,16 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="O13">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P13">
-        <v>25172</v>
+        <v>21106</v>
       </c>
       <c r="Q13">
-        <v>107924</v>
+        <v>97945</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>110000</v>
       </c>
@@ -5955,16 +5953,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O14">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P14">
-        <v>29420</v>
+        <v>25172</v>
       </c>
       <c r="Q14">
-        <v>117914</v>
+        <v>107924</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>120000</v>
       </c>
@@ -5993,16 +5991,16 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="O15">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P15">
-        <v>33982</v>
+        <v>29420</v>
       </c>
       <c r="Q15">
-        <v>127888</v>
+        <v>117914</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>130000</v>
       </c>
@@ -6031,16 +6029,16 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="O16">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P16">
-        <v>38875</v>
+        <v>33982</v>
       </c>
       <c r="Q16">
-        <v>137881</v>
+        <v>127888</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>140000</v>
       </c>
@@ -6069,16 +6067,16 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="O17">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P17">
-        <v>43932</v>
+        <v>38875</v>
       </c>
       <c r="Q17">
-        <v>147875</v>
+        <v>137881</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>150000</v>
       </c>
@@ -6107,16 +6105,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O18">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P18">
-        <v>49325</v>
+        <v>43932</v>
       </c>
       <c r="Q18">
-        <v>157864</v>
+        <v>147875</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>160000</v>
       </c>
@@ -6145,16 +6143,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O19">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P19">
-        <v>54841</v>
+        <v>49325</v>
       </c>
       <c r="Q19">
-        <v>167863</v>
+        <v>157864</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>170000</v>
       </c>
@@ -6183,16 +6181,16 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="O20">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P20">
-        <v>60593</v>
+        <v>54841</v>
       </c>
       <c r="Q20">
-        <v>177836</v>
+        <v>167863</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>180000</v>
       </c>
@@ -6221,16 +6219,16 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="O21">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="P21">
-        <v>66489</v>
+        <v>60593</v>
       </c>
       <c r="Q21">
-        <v>187827</v>
+        <v>177836</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>190000</v>
       </c>
@@ -6259,16 +6257,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="O22">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P22">
-        <v>72669</v>
+        <v>66489</v>
       </c>
       <c r="Q22">
-        <v>197813</v>
+        <v>187827</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>200000</v>
       </c>
@@ -6295,6 +6293,15 @@
       </c>
       <c r="M23" s="1">
         <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O23">
+        <v>200000</v>
+      </c>
+      <c r="P23">
+        <v>72669</v>
+      </c>
+      <c r="Q23">
+        <v>197813</v>
       </c>
     </row>
   </sheetData>

--- a/laba2/experiments.xlsx
+++ b/laba2/experiments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>hashtab_lookup</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Exp6</t>
+  </si>
+  <si>
+    <t>вывести глубину при поиске минимального элемента в худшем и среднем случае</t>
   </si>
 </sst>
 </file>
@@ -5484,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q23"/>
+  <dimension ref="B2:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6304,6 +6307,11 @@
         <v>197813</v>
       </c>
     </row>
+    <row r="49" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T49" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
